--- a/data/DMS실습(3)-ab테스트.xlsx
+++ b/data/DMS실습(3)-ab테스트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="460" windowWidth="17300" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6600" yWindow="460" windowWidth="17300" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -608,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7028,9 +7026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
